--- a/src/Section Properties ITERATION012.xlsx
+++ b/src/Section Properties ITERATION012.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\y544q894\Documents\GitHub\structures-calc\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4440F6C7-E6AF-47CD-8F8D-31FE789BAF59}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F62EBB9-A9B1-4499-8023-32D76250C8C7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -414,7 +414,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -428,6 +428,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -927,10 +928,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BB39"/>
+  <dimension ref="A1:BB51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AZ30" sqref="AZ30:BB30"/>
+      <selection activeCell="D18" sqref="D18:E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5845,6 +5846,46 @@
       <c r="U39" s="7"/>
       <c r="V39" s="7"/>
     </row>
+    <row r="47" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q47" s="9"/>
+      <c r="R47" s="9"/>
+      <c r="S47" s="9"/>
+      <c r="T47" s="9"/>
+      <c r="U47" s="9"/>
+      <c r="V47" s="9"/>
+    </row>
+    <row r="48" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q48" s="9"/>
+      <c r="R48" s="9"/>
+      <c r="S48" s="9"/>
+      <c r="T48" s="9"/>
+      <c r="U48" s="9"/>
+      <c r="V48" s="9"/>
+    </row>
+    <row r="49" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q49" s="9"/>
+      <c r="R49" s="9"/>
+      <c r="S49" s="9"/>
+      <c r="T49" s="9"/>
+      <c r="U49" s="9"/>
+      <c r="V49" s="9"/>
+    </row>
+    <row r="50" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q50" s="9"/>
+      <c r="R50" s="9"/>
+      <c r="S50" s="9"/>
+      <c r="T50" s="9"/>
+      <c r="U50" s="9"/>
+      <c r="V50" s="9"/>
+    </row>
+    <row r="51" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q51" s="9"/>
+      <c r="R51" s="9"/>
+      <c r="S51" s="9"/>
+      <c r="T51" s="9"/>
+      <c r="U51" s="9"/>
+      <c r="V51" s="9"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="Q37:V39"/>

--- a/src/Section Properties ITERATION012.xlsx
+++ b/src/Section Properties ITERATION012.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\y544q894\Documents\GitHub\structures-calc\src\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2843bd9c8d010698/Documents/GitHub/structures-calc/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F62EBB9-A9B1-4499-8023-32D76250C8C7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{9F62EBB9-A9B1-4499-8023-32D76250C8C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FCC74A6F-71BE-4262-B002-25F0D7CD8CAB}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cross Section Properties" sheetId="1" r:id="rId1"/>
@@ -422,13 +422,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -571,15 +571,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>487680</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
+      <xdr:colOff>787718</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>31432</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>37</xdr:col>
-      <xdr:colOff>983455</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>53695</xdr:rowOff>
+      <xdr:colOff>1283493</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>106082</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -608,8 +608,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="27127200" y="5463540"/>
-          <a:ext cx="5479255" cy="4099915"/>
+          <a:off x="28748356" y="3108007"/>
+          <a:ext cx="5705950" cy="4056100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -930,46 +930,46 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BB51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="AD1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D18" sqref="D18:E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.73046875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.73046875" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="16.7109375" customWidth="1"/>
-    <col min="30" max="30" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="33" max="35" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.73046875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.73046875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.73046875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.3984375" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="18.73046875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="19.265625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.73046875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="16.73046875" customWidth="1"/>
+    <col min="30" max="30" width="21.59765625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="12.265625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="15.59765625" bestFit="1" customWidth="1"/>
+    <col min="33" max="35" width="12.73046875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="14.73046875" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="20" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="23" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="27.265625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="25.73046875" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="25.59765625" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="27.265625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="25.73046875" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="25.59765625" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="27.265625" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="25.265625" bestFit="1" customWidth="1"/>
     <col min="49" max="49" width="25" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="23.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:54" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1106,7 +1106,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:54" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -1287,7 +1287,7 @@
         <v>-1.7395120589183338E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:54" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -1475,7 +1475,7 @@
         <v>-3.0572098571923965E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:54" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -1656,7 +1656,7 @@
         <v>-4.0532193563168068E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:54" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -1839,7 +1839,7 @@
         <v>-5.9228887389834589E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:54" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -2000,7 +2000,7 @@
         <v>7.7945607886005554E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:54" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -2162,7 +2162,7 @@
         <v>6.8585547056134082E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:54" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -2280,14 +2280,14 @@
       <c r="AF8" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="AG8" s="8" t="s">
+      <c r="AG8" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="AH8" s="8"/>
-      <c r="AI8" s="8"/>
-      <c r="AJ8" s="8"/>
-      <c r="AK8" s="8"/>
-      <c r="AL8" s="8"/>
+      <c r="AH8" s="9"/>
+      <c r="AI8" s="9"/>
+      <c r="AJ8" s="9"/>
+      <c r="AK8" s="9"/>
+      <c r="AL8" s="9"/>
       <c r="AO8" t="s">
         <v>62</v>
       </c>
@@ -2328,7 +2328,7 @@
         <v>8.9432471829216636E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:54" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -2498,7 +2498,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="10" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:54" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -2670,7 +2670,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="11" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:54" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>85</v>
       </c>
@@ -2840,7 +2840,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="12" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:54" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>86</v>
       </c>
@@ -3012,7 +3012,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="13" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:54" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>87</v>
       </c>
@@ -3170,7 +3170,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="14" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:54" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>88</v>
       </c>
@@ -3343,7 +3343,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="15" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:54" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>89</v>
       </c>
@@ -3519,7 +3519,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="16" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:54" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>90</v>
       </c>
@@ -3677,7 +3677,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="17" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:54" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>91</v>
       </c>
@@ -3835,7 +3835,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="18" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:54" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -3994,7 +3994,7 @@
         <v>-7.866065366356258E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:54" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -4153,7 +4153,7 @@
         <v>-6.6731173985677414E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:54" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -4312,7 +4312,7 @@
         <v>-8.6588998373108815E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:54" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -4471,7 +4471,7 @@
         <v>-7.3463280293042908E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:54" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -4630,7 +4630,7 @@
         <v>-1.1154702961706567E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:54" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>92</v>
       </c>
@@ -4787,7 +4787,7 @@
         <v>-5.5488529766106187E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:54" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>93</v>
       </c>
@@ -4944,7 +4944,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="25" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:54" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>94</v>
       </c>
@@ -5101,7 +5101,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="26" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:54" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>95</v>
       </c>
@@ -5258,7 +5258,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="27" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:54" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>96</v>
       </c>
@@ -5415,7 +5415,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="28" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:54" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>97</v>
       </c>
@@ -5572,7 +5572,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="29" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:54" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>98</v>
       </c>
@@ -5729,7 +5729,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="30" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:54" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>32</v>
       </c>
@@ -5806,7 +5806,7 @@
         <v>-4.0392912348175693E-2</v>
       </c>
     </row>
-    <row r="35" spans="17:22" x14ac:dyDescent="0.25">
+    <row r="35" spans="17:22" x14ac:dyDescent="0.45">
       <c r="Q35" s="1"/>
       <c r="R35" s="4" t="s">
         <v>54</v>
@@ -5814,77 +5814,77 @@
       <c r="S35" s="4"/>
       <c r="T35" s="4"/>
     </row>
-    <row r="36" spans="17:22" x14ac:dyDescent="0.25">
+    <row r="36" spans="17:22" x14ac:dyDescent="0.45">
       <c r="Q36" s="2"/>
       <c r="R36" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="37" spans="17:22" x14ac:dyDescent="0.25">
-      <c r="Q37" s="7" t="s">
+    <row r="37" spans="17:22" x14ac:dyDescent="0.45">
+      <c r="Q37" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="R37" s="7"/>
-      <c r="S37" s="7"/>
-      <c r="T37" s="7"/>
-      <c r="U37" s="7"/>
-      <c r="V37" s="7"/>
+      <c r="R37" s="8"/>
+      <c r="S37" s="8"/>
+      <c r="T37" s="8"/>
+      <c r="U37" s="8"/>
+      <c r="V37" s="8"/>
     </row>
-    <row r="38" spans="17:22" x14ac:dyDescent="0.25">
-      <c r="Q38" s="7"/>
-      <c r="R38" s="7"/>
-      <c r="S38" s="7"/>
-      <c r="T38" s="7"/>
-      <c r="U38" s="7"/>
-      <c r="V38" s="7"/>
+    <row r="38" spans="17:22" x14ac:dyDescent="0.45">
+      <c r="Q38" s="8"/>
+      <c r="R38" s="8"/>
+      <c r="S38" s="8"/>
+      <c r="T38" s="8"/>
+      <c r="U38" s="8"/>
+      <c r="V38" s="8"/>
     </row>
-    <row r="39" spans="17:22" x14ac:dyDescent="0.25">
-      <c r="Q39" s="7"/>
-      <c r="R39" s="7"/>
-      <c r="S39" s="7"/>
-      <c r="T39" s="7"/>
-      <c r="U39" s="7"/>
-      <c r="V39" s="7"/>
+    <row r="39" spans="17:22" x14ac:dyDescent="0.45">
+      <c r="Q39" s="8"/>
+      <c r="R39" s="8"/>
+      <c r="S39" s="8"/>
+      <c r="T39" s="8"/>
+      <c r="U39" s="8"/>
+      <c r="V39" s="8"/>
     </row>
-    <row r="47" spans="17:22" x14ac:dyDescent="0.25">
-      <c r="Q47" s="9"/>
-      <c r="R47" s="9"/>
-      <c r="S47" s="9"/>
-      <c r="T47" s="9"/>
-      <c r="U47" s="9"/>
-      <c r="V47" s="9"/>
+    <row r="47" spans="17:22" x14ac:dyDescent="0.45">
+      <c r="Q47" s="7"/>
+      <c r="R47" s="7"/>
+      <c r="S47" s="7"/>
+      <c r="T47" s="7"/>
+      <c r="U47" s="7"/>
+      <c r="V47" s="7"/>
     </row>
-    <row r="48" spans="17:22" x14ac:dyDescent="0.25">
-      <c r="Q48" s="9"/>
-      <c r="R48" s="9"/>
-      <c r="S48" s="9"/>
-      <c r="T48" s="9"/>
-      <c r="U48" s="9"/>
-      <c r="V48" s="9"/>
+    <row r="48" spans="17:22" x14ac:dyDescent="0.45">
+      <c r="Q48" s="7"/>
+      <c r="R48" s="7"/>
+      <c r="S48" s="7"/>
+      <c r="T48" s="7"/>
+      <c r="U48" s="7"/>
+      <c r="V48" s="7"/>
     </row>
-    <row r="49" spans="17:22" x14ac:dyDescent="0.25">
-      <c r="Q49" s="9"/>
-      <c r="R49" s="9"/>
-      <c r="S49" s="9"/>
-      <c r="T49" s="9"/>
-      <c r="U49" s="9"/>
-      <c r="V49" s="9"/>
+    <row r="49" spans="17:22" x14ac:dyDescent="0.45">
+      <c r="Q49" s="7"/>
+      <c r="R49" s="7"/>
+      <c r="S49" s="7"/>
+      <c r="T49" s="7"/>
+      <c r="U49" s="7"/>
+      <c r="V49" s="7"/>
     </row>
-    <row r="50" spans="17:22" x14ac:dyDescent="0.25">
-      <c r="Q50" s="9"/>
-      <c r="R50" s="9"/>
-      <c r="S50" s="9"/>
-      <c r="T50" s="9"/>
-      <c r="U50" s="9"/>
-      <c r="V50" s="9"/>
+    <row r="50" spans="17:22" x14ac:dyDescent="0.45">
+      <c r="Q50" s="7"/>
+      <c r="R50" s="7"/>
+      <c r="S50" s="7"/>
+      <c r="T50" s="7"/>
+      <c r="U50" s="7"/>
+      <c r="V50" s="7"/>
     </row>
-    <row r="51" spans="17:22" x14ac:dyDescent="0.25">
-      <c r="Q51" s="9"/>
-      <c r="R51" s="9"/>
-      <c r="S51" s="9"/>
-      <c r="T51" s="9"/>
-      <c r="U51" s="9"/>
-      <c r="V51" s="9"/>
+    <row r="51" spans="17:22" x14ac:dyDescent="0.45">
+      <c r="Q51" s="7"/>
+      <c r="R51" s="7"/>
+      <c r="S51" s="7"/>
+      <c r="T51" s="7"/>
+      <c r="U51" s="7"/>
+      <c r="V51" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/src/Section Properties ITERATION012.xlsx
+++ b/src/Section Properties ITERATION012.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2843bd9c8d010698/Documents/GitHub/structures-calc/src/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\y544q894\Documents\GitHub\structures-calc\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{9F62EBB9-A9B1-4499-8023-32D76250C8C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FCC74A6F-71BE-4262-B002-25F0D7CD8CAB}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="22695" windowHeight="14595"/>
   </bookViews>
   <sheets>
     <sheet name="Cross Section Properties" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -354,7 +353,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -927,49 +926,49 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BB51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AD1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18:E23"/>
+      <selection activeCell="AG8" sqref="AG8:AL8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.59765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.59765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.73046875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.73046875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.73046875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.59765625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.73046875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.73046875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.3984375" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="18.73046875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="19.265625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.73046875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="16.73046875" customWidth="1"/>
-    <col min="30" max="30" width="21.59765625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="12.265625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="15.59765625" bestFit="1" customWidth="1"/>
-    <col min="33" max="35" width="12.73046875" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="14.73046875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="16.7109375" customWidth="1"/>
+    <col min="30" max="30" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="33" max="35" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="20" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="23" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="27.265625" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="25.73046875" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="25.59765625" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="27.265625" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="25.73046875" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="25.59765625" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="27.265625" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="25.265625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="25.28515625" bestFit="1" customWidth="1"/>
     <col min="49" max="49" width="25" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="23.3984375" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="23.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1106,7 +1105,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:54" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -1287,7 +1286,7 @@
         <v>-1.7395120589183338E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:54" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -1475,7 +1474,7 @@
         <v>-3.0572098571923965E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:54" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -1656,7 +1655,7 @@
         <v>-4.0532193563168068E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:54" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -1839,7 +1838,7 @@
         <v>-5.9228887389834589E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:54" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -2000,7 +1999,7 @@
         <v>7.7945607886005554E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:54" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -2162,7 +2161,7 @@
         <v>6.8585547056134082E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:54" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -2328,7 +2327,7 @@
         <v>8.9432471829216636E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:54" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -2498,7 +2497,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="10" spans="1:54" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -2670,7 +2669,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="11" spans="1:54" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>85</v>
       </c>
@@ -2840,7 +2839,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="12" spans="1:54" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>86</v>
       </c>
@@ -3012,7 +3011,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="13" spans="1:54" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>87</v>
       </c>
@@ -3170,7 +3169,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="14" spans="1:54" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>88</v>
       </c>
@@ -3343,7 +3342,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="15" spans="1:54" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>89</v>
       </c>
@@ -3519,7 +3518,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="16" spans="1:54" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>90</v>
       </c>
@@ -3677,7 +3676,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="17" spans="1:54" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>91</v>
       </c>
@@ -3835,7 +3834,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="18" spans="1:54" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -3994,7 +3993,7 @@
         <v>-7.866065366356258E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:54" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -4153,7 +4152,7 @@
         <v>-6.6731173985677414E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:54" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -4312,7 +4311,7 @@
         <v>-8.6588998373108815E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:54" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -4471,7 +4470,7 @@
         <v>-7.3463280293042908E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:54" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -4630,7 +4629,7 @@
         <v>-1.1154702961706567E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:54" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>92</v>
       </c>
@@ -4787,7 +4786,7 @@
         <v>-5.5488529766106187E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:54" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>93</v>
       </c>
@@ -4944,7 +4943,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="25" spans="1:54" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>94</v>
       </c>
@@ -5101,7 +5100,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="26" spans="1:54" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>95</v>
       </c>
@@ -5258,7 +5257,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="27" spans="1:54" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>96</v>
       </c>
@@ -5415,7 +5414,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="28" spans="1:54" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>97</v>
       </c>
@@ -5572,7 +5571,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="29" spans="1:54" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>98</v>
       </c>
@@ -5729,7 +5728,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="30" spans="1:54" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>32</v>
       </c>
@@ -5806,7 +5805,7 @@
         <v>-4.0392912348175693E-2</v>
       </c>
     </row>
-    <row r="35" spans="17:22" x14ac:dyDescent="0.45">
+    <row r="35" spans="17:22" x14ac:dyDescent="0.25">
       <c r="Q35" s="1"/>
       <c r="R35" s="4" t="s">
         <v>54</v>
@@ -5814,13 +5813,13 @@
       <c r="S35" s="4"/>
       <c r="T35" s="4"/>
     </row>
-    <row r="36" spans="17:22" x14ac:dyDescent="0.45">
+    <row r="36" spans="17:22" x14ac:dyDescent="0.25">
       <c r="Q36" s="2"/>
       <c r="R36" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="37" spans="17:22" x14ac:dyDescent="0.45">
+    <row r="37" spans="17:22" x14ac:dyDescent="0.25">
       <c r="Q37" s="8" t="s">
         <v>36</v>
       </c>
@@ -5830,7 +5829,7 @@
       <c r="U37" s="8"/>
       <c r="V37" s="8"/>
     </row>
-    <row r="38" spans="17:22" x14ac:dyDescent="0.45">
+    <row r="38" spans="17:22" x14ac:dyDescent="0.25">
       <c r="Q38" s="8"/>
       <c r="R38" s="8"/>
       <c r="S38" s="8"/>
@@ -5838,7 +5837,7 @@
       <c r="U38" s="8"/>
       <c r="V38" s="8"/>
     </row>
-    <row r="39" spans="17:22" x14ac:dyDescent="0.45">
+    <row r="39" spans="17:22" x14ac:dyDescent="0.25">
       <c r="Q39" s="8"/>
       <c r="R39" s="8"/>
       <c r="S39" s="8"/>
@@ -5846,7 +5845,7 @@
       <c r="U39" s="8"/>
       <c r="V39" s="8"/>
     </row>
-    <row r="47" spans="17:22" x14ac:dyDescent="0.45">
+    <row r="47" spans="17:22" x14ac:dyDescent="0.25">
       <c r="Q47" s="7"/>
       <c r="R47" s="7"/>
       <c r="S47" s="7"/>
@@ -5854,7 +5853,7 @@
       <c r="U47" s="7"/>
       <c r="V47" s="7"/>
     </row>
-    <row r="48" spans="17:22" x14ac:dyDescent="0.45">
+    <row r="48" spans="17:22" x14ac:dyDescent="0.25">
       <c r="Q48" s="7"/>
       <c r="R48" s="7"/>
       <c r="S48" s="7"/>
@@ -5862,7 +5861,7 @@
       <c r="U48" s="7"/>
       <c r="V48" s="7"/>
     </row>
-    <row r="49" spans="17:22" x14ac:dyDescent="0.45">
+    <row r="49" spans="17:22" x14ac:dyDescent="0.25">
       <c r="Q49" s="7"/>
       <c r="R49" s="7"/>
       <c r="S49" s="7"/>
@@ -5870,7 +5869,7 @@
       <c r="U49" s="7"/>
       <c r="V49" s="7"/>
     </row>
-    <row r="50" spans="17:22" x14ac:dyDescent="0.45">
+    <row r="50" spans="17:22" x14ac:dyDescent="0.25">
       <c r="Q50" s="7"/>
       <c r="R50" s="7"/>
       <c r="S50" s="7"/>
@@ -5878,7 +5877,7 @@
       <c r="U50" s="7"/>
       <c r="V50" s="7"/>
     </row>
-    <row r="51" spans="17:22" x14ac:dyDescent="0.45">
+    <row r="51" spans="17:22" x14ac:dyDescent="0.25">
       <c r="Q51" s="7"/>
       <c r="R51" s="7"/>
       <c r="S51" s="7"/>

--- a/src/Section Properties ITERATION012.xlsx
+++ b/src/Section Properties ITERATION012.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\y544q894\Documents\GitHub\structures-calc\src\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A974V276\Documents\GitHub\structures-calc\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F62EBB9-A9B1-4499-8023-32D76250C8C7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Cross Section Properties" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="105">
   <si>
     <t>Name of element</t>
   </si>
@@ -354,7 +353,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -422,13 +421,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -927,11 +926,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BB51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18:E23"/>
+    <sheetView tabSelected="1" topLeftCell="T1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AD8" sqref="AD6:AD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1947,8 +1946,8 @@
       <c r="AC6" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="AD6" s="1" t="s">
-        <v>61</v>
+      <c r="AD6" s="5">
+        <v>5.3</v>
       </c>
       <c r="AE6" s="5">
         <f t="shared" si="16"/>
@@ -2109,8 +2108,8 @@
       <c r="AC7" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="AD7" s="1" t="s">
-        <v>61</v>
+      <c r="AD7" s="5">
+        <v>5.3</v>
       </c>
       <c r="AE7" s="5">
         <f t="shared" si="16"/>
@@ -2270,8 +2269,8 @@
       <c r="AC8" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="AD8" s="1" t="s">
-        <v>61</v>
+      <c r="AD8" s="5">
+        <v>5.3</v>
       </c>
       <c r="AE8" s="5">
         <f t="shared" si="16"/>
@@ -2280,14 +2279,14 @@
       <c r="AF8" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="AG8" s="8" t="s">
+      <c r="AG8" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="AH8" s="8"/>
-      <c r="AI8" s="8"/>
-      <c r="AJ8" s="8"/>
-      <c r="AK8" s="8"/>
-      <c r="AL8" s="8"/>
+      <c r="AH8" s="9"/>
+      <c r="AI8" s="9"/>
+      <c r="AJ8" s="9"/>
+      <c r="AK8" s="9"/>
+      <c r="AL8" s="9"/>
       <c r="AO8" t="s">
         <v>62</v>
       </c>
@@ -3944,8 +3943,8 @@
       <c r="AC18" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="AD18" s="1" t="s">
-        <v>61</v>
+      <c r="AD18" s="5">
+        <v>5.3</v>
       </c>
       <c r="AE18" s="5">
         <f t="shared" si="38"/>
@@ -4103,8 +4102,8 @@
       <c r="AC19" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="AD19" s="1" t="s">
-        <v>61</v>
+      <c r="AD19" s="5">
+        <v>5.3</v>
       </c>
       <c r="AE19" s="5">
         <f t="shared" si="38"/>
@@ -4262,8 +4261,8 @@
       <c r="AC20" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="AD20" s="1" t="s">
-        <v>61</v>
+      <c r="AD20" s="5">
+        <v>5.3</v>
       </c>
       <c r="AE20" s="5">
         <f t="shared" si="38"/>
@@ -4421,8 +4420,8 @@
       <c r="AC21" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="AD21" s="1" t="s">
-        <v>61</v>
+      <c r="AD21" s="5">
+        <v>5.3</v>
       </c>
       <c r="AE21" s="5">
         <f t="shared" si="38"/>
@@ -4580,8 +4579,8 @@
       <c r="AC22" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="AD22" s="1" t="s">
-        <v>61</v>
+      <c r="AD22" s="5">
+        <v>5.3</v>
       </c>
       <c r="AE22" s="5">
         <f t="shared" si="38"/>
@@ -4737,8 +4736,8 @@
       <c r="AC23" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="AD23" s="1" t="s">
-        <v>61</v>
+      <c r="AD23" s="5">
+        <v>5.3</v>
       </c>
       <c r="AE23" s="5">
         <f t="shared" si="38"/>
@@ -5821,70 +5820,70 @@
       </c>
     </row>
     <row r="37" spans="17:22" x14ac:dyDescent="0.25">
-      <c r="Q37" s="7" t="s">
+      <c r="Q37" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="R37" s="7"/>
-      <c r="S37" s="7"/>
-      <c r="T37" s="7"/>
-      <c r="U37" s="7"/>
-      <c r="V37" s="7"/>
+      <c r="R37" s="8"/>
+      <c r="S37" s="8"/>
+      <c r="T37" s="8"/>
+      <c r="U37" s="8"/>
+      <c r="V37" s="8"/>
     </row>
     <row r="38" spans="17:22" x14ac:dyDescent="0.25">
-      <c r="Q38" s="7"/>
-      <c r="R38" s="7"/>
-      <c r="S38" s="7"/>
-      <c r="T38" s="7"/>
-      <c r="U38" s="7"/>
-      <c r="V38" s="7"/>
+      <c r="Q38" s="8"/>
+      <c r="R38" s="8"/>
+      <c r="S38" s="8"/>
+      <c r="T38" s="8"/>
+      <c r="U38" s="8"/>
+      <c r="V38" s="8"/>
     </row>
     <row r="39" spans="17:22" x14ac:dyDescent="0.25">
-      <c r="Q39" s="7"/>
-      <c r="R39" s="7"/>
-      <c r="S39" s="7"/>
-      <c r="T39" s="7"/>
-      <c r="U39" s="7"/>
-      <c r="V39" s="7"/>
+      <c r="Q39" s="8"/>
+      <c r="R39" s="8"/>
+      <c r="S39" s="8"/>
+      <c r="T39" s="8"/>
+      <c r="U39" s="8"/>
+      <c r="V39" s="8"/>
     </row>
     <row r="47" spans="17:22" x14ac:dyDescent="0.25">
-      <c r="Q47" s="9"/>
-      <c r="R47" s="9"/>
-      <c r="S47" s="9"/>
-      <c r="T47" s="9"/>
-      <c r="U47" s="9"/>
-      <c r="V47" s="9"/>
+      <c r="Q47" s="7"/>
+      <c r="R47" s="7"/>
+      <c r="S47" s="7"/>
+      <c r="T47" s="7"/>
+      <c r="U47" s="7"/>
+      <c r="V47" s="7"/>
     </row>
     <row r="48" spans="17:22" x14ac:dyDescent="0.25">
-      <c r="Q48" s="9"/>
-      <c r="R48" s="9"/>
-      <c r="S48" s="9"/>
-      <c r="T48" s="9"/>
-      <c r="U48" s="9"/>
-      <c r="V48" s="9"/>
+      <c r="Q48" s="7"/>
+      <c r="R48" s="7"/>
+      <c r="S48" s="7"/>
+      <c r="T48" s="7"/>
+      <c r="U48" s="7"/>
+      <c r="V48" s="7"/>
     </row>
     <row r="49" spans="17:22" x14ac:dyDescent="0.25">
-      <c r="Q49" s="9"/>
-      <c r="R49" s="9"/>
-      <c r="S49" s="9"/>
-      <c r="T49" s="9"/>
-      <c r="U49" s="9"/>
-      <c r="V49" s="9"/>
+      <c r="Q49" s="7"/>
+      <c r="R49" s="7"/>
+      <c r="S49" s="7"/>
+      <c r="T49" s="7"/>
+      <c r="U49" s="7"/>
+      <c r="V49" s="7"/>
     </row>
     <row r="50" spans="17:22" x14ac:dyDescent="0.25">
-      <c r="Q50" s="9"/>
-      <c r="R50" s="9"/>
-      <c r="S50" s="9"/>
-      <c r="T50" s="9"/>
-      <c r="U50" s="9"/>
-      <c r="V50" s="9"/>
+      <c r="Q50" s="7"/>
+      <c r="R50" s="7"/>
+      <c r="S50" s="7"/>
+      <c r="T50" s="7"/>
+      <c r="U50" s="7"/>
+      <c r="V50" s="7"/>
     </row>
     <row r="51" spans="17:22" x14ac:dyDescent="0.25">
-      <c r="Q51" s="9"/>
-      <c r="R51" s="9"/>
-      <c r="S51" s="9"/>
-      <c r="T51" s="9"/>
-      <c r="U51" s="9"/>
-      <c r="V51" s="9"/>
+      <c r="Q51" s="7"/>
+      <c r="R51" s="7"/>
+      <c r="S51" s="7"/>
+      <c r="T51" s="7"/>
+      <c r="U51" s="7"/>
+      <c r="V51" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="2">
